--- a/results/Activity Scope/gamm_fs_param_overall.xlsx
+++ b/results/Activity Scope/gamm_fs_param_overall.xlsx
@@ -380,10 +380,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>60.4753812414312</v>
+        <v>60.4753812414313</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000000130435755877476</v>
+        <v>0.000000000000000000000000130435755877457</v>
       </c>
     </row>
   </sheetData>
